--- a/clanoverview_logs/generated_reports/2017-12-21_clanlog.xlsx
+++ b/clanoverview_logs/generated_reports/2017-12-21_clanlog.xlsx
@@ -170,19 +170,19 @@
     <t>#8U09PR0V</t>
   </si>
   <si>
+    <t>Bastos</t>
+  </si>
+  <si>
+    <t>#8RP8QV8V</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
     <t>(j)de tik(j)</t>
   </si>
   <si>
     <t>#GYVQ0Y8R</t>
-  </si>
-  <si>
-    <t>Bastos</t>
-  </si>
-  <si>
-    <t>#8RP8QV8V</t>
-  </si>
-  <si>
-    <t>member</t>
   </si>
   <si>
     <t>pamuk39</t>
@@ -532,13 +532,13 @@
         <v>14</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>1192.0</v>
+        <v>1276.0</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>2005.0</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="6">
@@ -584,7 +584,7 @@
         <v>184.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>5063.0</v>
+        <v>5066.0</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>14</v>
@@ -593,10 +593,10 @@
         <v>1889.0</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>1386.0</v>
+        <v>1423.0</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8">
@@ -796,7 +796,7 @@
         <v>3374.0</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>3667.0</v>
+        <v>3674.0</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>0.92</v>
@@ -1016,22 +1016,22 @@
         <v>53</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>178.0</v>
+        <v>172.0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>4556.0</v>
+        <v>4555.0</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>614.0</v>
+        <v>37.0</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>1624.0</v>
+        <v>0.0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.38</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="23">
@@ -1039,28 +1039,28 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>172.0</v>
+        <v>178.0</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>4555.0</v>
+        <v>4554.0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>37.0</v>
+        <v>614.0</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>0.0</v>
+        <v>1624.0</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>37.0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="24">
@@ -1167,7 +1167,7 @@
         <v>4392.0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>1095.0</v>
@@ -1193,7 +1193,7 @@
         <v>175.0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>4334.0</v>
+        <v>4336.0</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -1202,10 +1202,10 @@
         <v>3167.0</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>3966.0</v>
+        <v>4001.0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="29">
@@ -1254,7 +1254,7 @@
         <v>4099.0</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>68.0</v>
@@ -1283,7 +1283,7 @@
         <v>4041.0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>424.0</v>
@@ -1376,7 +1376,7 @@
         <v>7611.0</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>5763.0</v>
+        <v>5768.0</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1.32</v>
@@ -1399,7 +1399,7 @@
         <v>3605.0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>190.0</v>
@@ -1428,7 +1428,7 @@
         <v>3508.0</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>1401.0</v>
@@ -1457,7 +1457,7 @@
         <v>3480.0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>853.0</v>
@@ -1573,7 +1573,7 @@
         <v>3109.0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G41" s="3" t="n">
         <v>1343.0</v>
@@ -1631,7 +1631,7 @@
         <v>1347.0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G43" s="3" t="n">
         <v>0.0</v>
@@ -1646,7 +1646,7 @@
   </sheetData>
   <pageMargins bottom="0.5" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.5"/>
   <headerFooter>
-    <oddFooter>&amp;LClanoverzicht&amp;R21/12/2017 08:32</oddFooter>
+    <oddFooter>&amp;LClanoverzicht&amp;R21/12/2017 08:57</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/clanoverview_logs/generated_reports/2017-12-21_clanlog.xlsx
+++ b/clanoverview_logs/generated_reports/2017-12-21_clanlog.xlsx
@@ -32,10 +32,10 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Donated units</t>
-  </si>
-  <si>
-    <t>Received units</t>
+    <t>Donated</t>
+  </si>
+  <si>
+    <t>Received</t>
   </si>
   <si>
     <t>Ratio</t>
@@ -110,18 +110,18 @@
     <t>#QLV8Q0C0</t>
   </si>
   <si>
+    <t>tomtoch</t>
+  </si>
+  <si>
+    <t>#8299JUJY</t>
+  </si>
+  <si>
     <t>leeuw</t>
   </si>
   <si>
     <t>#PP0C92QP</t>
   </si>
   <si>
-    <t>tomtoch</t>
-  </si>
-  <si>
-    <t>#8299JUJY</t>
-  </si>
-  <si>
     <t>GJS</t>
   </si>
   <si>
@@ -152,24 +152,30 @@
     <t>#9Y0URQUL</t>
   </si>
   <si>
+    <t>xavier</t>
+  </si>
+  <si>
+    <t>#8P88LUCQ</t>
+  </si>
+  <si>
     <t>duke en wesj</t>
   </si>
   <si>
     <t>#P0PV2CJY</t>
   </si>
   <si>
-    <t>xavier</t>
-  </si>
-  <si>
-    <t>#8P88LUCQ</t>
-  </si>
-  <si>
     <t>THICK GIRLS</t>
   </si>
   <si>
     <t>#8U09PR0V</t>
   </si>
   <si>
+    <t>(j)de tik(j)</t>
+  </si>
+  <si>
+    <t>#GYVQ0Y8R</t>
+  </si>
+  <si>
     <t>Bastos</t>
   </si>
   <si>
@@ -179,12 +185,6 @@
     <t>member</t>
   </si>
   <si>
-    <t>(j)de tik(j)</t>
-  </si>
-  <si>
-    <t>#GYVQ0Y8R</t>
-  </si>
-  <si>
     <t>pamuk39</t>
   </si>
   <si>
@@ -275,16 +275,16 @@
     <t>#C0UC2QPJ</t>
   </si>
   <si>
+    <t>marco25</t>
+  </si>
+  <si>
+    <t>#9CGP2Y2G</t>
+  </si>
+  <si>
     <t>OhhJayky!</t>
   </si>
   <si>
     <t>#R0Y2J8G2</t>
-  </si>
-  <si>
-    <t>marco25</t>
-  </si>
-  <si>
-    <t>#9CGP2Y2G</t>
   </si>
   <si>
     <t>Lol-with-pohl</t>
@@ -391,8 +391,8 @@
     <col min="4" max="4" width="8.91015625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="8.8046875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="9.21875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.01171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.74609375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="9.09765625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="6.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -468,19 +468,19 @@
         <v>197.0</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>5526.0</v>
+        <v>5539.0</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>10179.0</v>
+        <v>10369.0</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>4914.0</v>
+        <v>5023.0</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="4">
@@ -526,7 +526,7 @@
         <v>179.0</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>5218.0</v>
+        <v>5212.0</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>14</v>
@@ -564,10 +564,10 @@
         <v>4164.0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>3550.0</v>
+        <v>3585.0</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="7">
@@ -642,19 +642,19 @@
         <v>210.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>4931.0</v>
+        <v>4933.0</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>5576.0</v>
+        <v>5620.0</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>2788.0</v>
+        <v>2825.0</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>2.0</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="10">
@@ -671,7 +671,7 @@
         <v>159.0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>4920.0</v>
+        <v>4916.0</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -680,10 +680,10 @@
         <v>796.0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1027.0</v>
+        <v>1064.0</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11">
@@ -700,7 +700,7 @@
         <v>172.0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>4868.0</v>
+        <v>4876.0</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
@@ -726,22 +726,22 @@
         <v>33</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>174.0</v>
+        <v>179.0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>4840.0</v>
+        <v>4873.0</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3746.0</v>
+        <v>1185.0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>5843.0</v>
+        <v>1809.0</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="13">
@@ -755,22 +755,22 @@
         <v>35</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>179.0</v>
+        <v>174.0</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>4834.0</v>
+        <v>4858.0</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>1185.0</v>
+        <v>3876.0</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>1772.0</v>
+        <v>5948.0</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="14">
@@ -787,16 +787,16 @@
         <v>161.0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>4827.0</v>
+        <v>4829.0</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3374.0</v>
+        <v>3411.0</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>3674.0</v>
+        <v>3711.0</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>0.92</v>
@@ -816,7 +816,7 @@
         <v>175.0</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>4787.0</v>
+        <v>4794.0</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>14</v>
@@ -874,7 +874,7 @@
         <v>179.0</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>4712.0</v>
+        <v>4706.0</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>14</v>
@@ -929,22 +929,22 @@
         <v>47</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>211.0</v>
+        <v>181.0</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>4633.0</v>
+        <v>4668.0</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>6894.0</v>
+        <v>7025.0</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>4299.0</v>
+        <v>7149.0</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>1.6</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="20">
@@ -958,22 +958,22 @@
         <v>49</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>181.0</v>
+        <v>211.0</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>4628.0</v>
+        <v>4637.0</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6804.0</v>
+        <v>6894.0</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>6894.0</v>
+        <v>4336.0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.99</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="21">
@@ -990,19 +990,19 @@
         <v>183.0</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>4571.0</v>
+        <v>4573.0</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>1438.0</v>
+        <v>1622.0</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>1390.0</v>
+        <v>1427.0</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="22">
@@ -1016,22 +1016,22 @@
         <v>53</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>172.0</v>
+        <v>178.0</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>4555.0</v>
+        <v>4554.0</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>37.0</v>
+        <v>614.0</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.0</v>
+        <v>1624.0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>37.0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="23">
@@ -1039,28 +1039,28 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="3" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>4551.0</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="3" t="n">
-        <v>178.0</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>4554.0</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="G23" s="3" t="n">
-        <v>614.0</v>
+        <v>37.0</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>1624.0</v>
+        <v>0.0</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>0.38</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="24">
@@ -1077,19 +1077,19 @@
         <v>195.0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>4484.0</v>
+        <v>4479.0</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6855.0</v>
+        <v>6862.0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>3968.0</v>
+        <v>4003.0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="25">
@@ -1141,13 +1141,13 @@
         <v>14</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1261.0</v>
+        <v>1296.0</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>2212.0</v>
+        <v>2247.0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="27">
@@ -1164,10 +1164,10 @@
         <v>161.0</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>4392.0</v>
+        <v>4388.0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G27" s="3" t="n">
         <v>1095.0</v>
@@ -1193,19 +1193,19 @@
         <v>175.0</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>4336.0</v>
+        <v>4300.0</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3167.0</v>
+        <v>3257.0</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>4001.0</v>
+        <v>4071.0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29">
@@ -1222,16 +1222,16 @@
         <v>159.0</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>4291.0</v>
+        <v>4295.0</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>2208.0</v>
+        <v>2275.0</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>3257.0</v>
+        <v>3331.0</v>
       </c>
       <c r="I29" s="3" t="n">
         <v>0.68</v>
@@ -1251,10 +1251,10 @@
         <v>172.0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>4099.0</v>
+        <v>4092.0</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>68.0</v>
@@ -1283,16 +1283,16 @@
         <v>4041.0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G31" s="3" t="n">
         <v>424.0</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>406.0</v>
+        <v>441.0</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="32">
@@ -1318,10 +1318,10 @@
         <v>3154.0</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>4039.0</v>
+        <v>4074.0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="33">
@@ -1338,7 +1338,7 @@
         <v>155.0</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>3762.0</v>
+        <v>3760.0</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>21</v>
@@ -1367,16 +1367,16 @@
         <v>170.0</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>3650.0</v>
+        <v>3675.0</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>7611.0</v>
+        <v>7651.0</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>5768.0</v>
+        <v>5803.0</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1.32</v>
@@ -1396,10 +1396,10 @@
         <v>159.0</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>3605.0</v>
+        <v>3581.0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>190.0</v>
@@ -1428,7 +1428,7 @@
         <v>3508.0</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>1401.0</v>
@@ -1457,7 +1457,7 @@
         <v>3480.0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G37" s="3" t="n">
         <v>853.0</v>
@@ -1509,22 +1509,22 @@
         <v>88</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>123.0</v>
+        <v>214.0</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>3311.0</v>
+        <v>3394.0</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>639.0</v>
+        <v>3663.0</v>
       </c>
       <c r="H39" s="3" t="n">
-        <v>1062.0</v>
+        <v>3971.0</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="40">
@@ -1538,22 +1538,22 @@
         <v>90</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>214.0</v>
+        <v>123.0</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>3286.0</v>
+        <v>3296.0</v>
       </c>
       <c r="F40" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>3663.0</v>
+        <v>639.0</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>3971.0</v>
+        <v>1062.0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.92</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
         <v>165.0</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>3109.0</v>
+        <v>3161.0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>1343.0</v>
+        <v>1417.0</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>914.0</v>
+        <v>988.0</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="42">
@@ -1628,10 +1628,10 @@
         <v>69.0</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>1347.0</v>
+        <v>1341.0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G43" s="3" t="n">
         <v>0.0</v>
@@ -1646,7 +1646,7 @@
   </sheetData>
   <pageMargins bottom="0.5" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.5"/>
   <headerFooter>
-    <oddFooter>&amp;LClanoverzicht&amp;R21/12/2017 08:57</oddFooter>
+    <oddFooter>&amp;LClanoverzicht&amp;R21/12/2017 15:00</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/clanoverview_logs/generated_reports/2017-12-21_clanlog.xlsx
+++ b/clanoverview_logs/generated_reports/2017-12-21_clanlog.xlsx
@@ -706,13 +706,13 @@
         <v>14</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>3013.0</v>
+        <v>3050.0</v>
       </c>
       <c r="H11" s="3" t="n">
         <v>2678.0</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="12">
@@ -932,7 +932,7 @@
         <v>181.0</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>4668.0</v>
+        <v>4672.0</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>14</v>
@@ -941,7 +941,7 @@
         <v>7025.0</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>7149.0</v>
+        <v>7186.0</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>0.98</v>
@@ -1454,7 +1454,7 @@
         <v>156.0</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>3480.0</v>
+        <v>3498.0</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>56</v>
@@ -1646,7 +1646,7 @@
   </sheetData>
   <pageMargins bottom="0.5" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.5"/>
   <headerFooter>
-    <oddFooter>&amp;LClanoverzicht&amp;R21/12/2017 15:00</oddFooter>
+    <oddFooter>&amp;LClanoverzicht&amp;R21/12/2017 15:37</oddFooter>
   </headerFooter>
 </worksheet>
 </file>